--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7482,7 +7483,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -7498,6 +7498,2302 @@
       </c>
       <c r="H74" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>697.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.1377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2747</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7266</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7266</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5201</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7272</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5327</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4994</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3880</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3767</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1975</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160512</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时卓越品牌混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519949</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007294</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009440</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20.48</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006568</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国联安行业领先混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009441</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大保德信裕鑫混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>65.63</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007293</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信利信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9799,4 +9800,2226 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>928.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>27.6827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8436</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2582</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证食品饮料行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1727</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6879</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6705</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011769</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011856</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信成长动力一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008891</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011770</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国精诚回报12个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008892</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>35.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011857</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信均衡成长18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012763</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012764</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰紫金中证细分食品饮料产业主题指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12022,4 +12023,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>73</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12031,7 +12032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12042,17 +12043,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12062,14 +12083,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.98</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>776.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.4199</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -12078,14 +12121,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.09</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9936</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12094,14 +12159,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.48</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -12110,13 +12197,3075 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6862</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1368</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7871</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5686</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011353</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011626</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161818</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华消费主题混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>银华中国梦30股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2410</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2320</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012667</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>79.10</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002518</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011354</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融景盛一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011627</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实匠心回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012668</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融景泓一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>46.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.20</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006610</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>银华远见混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007072</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>民生加银鑫福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>110</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>57.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15164,7 +15165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15175,17 +15176,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -15195,14 +15216,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>56.91</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>688.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.8315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -15211,14 +15254,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.98</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>161.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.7730</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -15227,14 +15292,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.09</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -15243,14 +15330,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>73</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.48</v>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -15259,13 +15368,3017 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6441</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519018</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富均衡增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8782</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6400</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5633</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001349</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国改革动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4570</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3234</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2634</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1740</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501038</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华明择多策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013209</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013210</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰大视野混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000928</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>570006</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺德中小盘混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>110</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>57.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18261,7 +18262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18272,17 +18273,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18292,14 +18313,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.62</v>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>685.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.8704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -18308,14 +18351,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.91</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.6113</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -18324,14 +18389,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.98</v>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -18340,14 +18427,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>59</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.09</v>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8919</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -18356,14 +18465,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>73</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.48</v>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -18372,13 +18503,4285 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1381</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0649</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9681</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9656</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9412</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7747</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6445</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4059</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3760</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3712</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2984</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2967</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>163302</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩资源优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2581</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信丰盈回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012374</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国稳健恒盛12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2545</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0693</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>700001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>平安行业先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010683</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001265</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信优质企业混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002189</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>农银汇理国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.59</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>530016</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信恒稳价值混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.12</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002055</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰兴益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>83.78</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010684</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中融景颐6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002123</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>北信瑞丰外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>114</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>110</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>57.07</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603369-今世缘.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>56.99</v>
+        <v>54.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>49.62</v>
+        <v>56.99</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>56.91</v>
+        <v>49.62</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="D5" t="n">
-        <v>40.98</v>
+        <v>56.91</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>43.09</v>
+        <v>40.98</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>43.48</v>
+        <v>43.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>73</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>110</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>57.07</v>
       </c>
     </row>
@@ -600,6 +617,4924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161725</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>609.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.8290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5822</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华中证酒ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3960</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012414</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证白酒指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8424</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1730</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0734</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9952</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9560</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8663</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证酒指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7458</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7296</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6969</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>40.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6658</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3613</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3480</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安汇智精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012744</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2738</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009476</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安升级主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001140</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515710</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝中证细分食品饮料产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002472</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>561300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011669</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001320</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏上证主要消费ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012770</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信创新生活混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.28</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000904</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银华回报灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>013289</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004549</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富安达消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0736</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013347</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银丰盈回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002212</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实新起航灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011349</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>78.99</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004987</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003105</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159843</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>招商国证食品饮料行业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014864</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信食品饮料行业股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>013290</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银食品饮料行业混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001464</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.15</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009954</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>北信瑞丰优选成长股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011670</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长信优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>65.90</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015032</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中融医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159789</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信中证饮料主题ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009170</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014214</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>012758</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000057</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银消费主题混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001829</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>北信瑞丰中国智造主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011350</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>淳厚现代服务业股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012615</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004189</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商消费行业股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银新得利混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>013350</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>光大保德信先进服务业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.99</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009169</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>湘财长兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>159862</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华中证食品ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003106</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>光大保德信永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>015741</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014462</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001823</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大保德信鼎鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>015850</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>农银行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014215</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>光大保德信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011477</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银总回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>015742</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>东财品质生活优选混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012616</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实优化红利混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015033</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中融医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014463</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大保德信汇佳混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>43.38</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015668</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4985,7 +9920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8081,7 +13016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11213,7 +16148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13435,7 +18370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15731,7 +20666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18554,7 +23489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
